--- a/ExcelConfig/成就表.xlsx
+++ b/ExcelConfig/成就表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="105" yWindow="-60" windowWidth="18870" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="AchievementConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="184">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,14 +34,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,10 +76,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>其他奖励类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励参数1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -98,9 +86,6 @@
     <t>奖励参数3</t>
   </si>
   <si>
-    <t>奖励参数4</t>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OtherRewardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RewardPar1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,9 +117,6 @@
     <t>RewardPar3</t>
   </si>
   <si>
-    <t>RewardPar4</t>
-  </si>
-  <si>
     <t>AchievementConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +134,558 @@
   </si>
   <si>
     <t>ConditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金银满仓Ⅰ</t>
+  </si>
+  <si>
+    <t>金银满仓Ⅱ</t>
+  </si>
+  <si>
+    <t>金银满仓Ⅲ</t>
+  </si>
+  <si>
+    <t>金银满仓Ⅳ</t>
+  </si>
+  <si>
+    <t>金银满仓Ⅴ</t>
+  </si>
+  <si>
+    <t>金银满仓Ⅵ</t>
+  </si>
+  <si>
+    <t>幸运星Ⅰ</t>
+  </si>
+  <si>
+    <t>幸运星Ⅱ</t>
+  </si>
+  <si>
+    <t>幸运星Ⅲ</t>
+  </si>
+  <si>
+    <t>幸运星Ⅳ</t>
+  </si>
+  <si>
+    <t>幸运星Ⅴ</t>
+  </si>
+  <si>
+    <t>幸运星Ⅵ</t>
+  </si>
+  <si>
+    <t>一路向西Ⅰ</t>
+  </si>
+  <si>
+    <t>一路向西Ⅱ</t>
+  </si>
+  <si>
+    <t>一路向西Ⅲ</t>
+  </si>
+  <si>
+    <t>一路向西Ⅳ</t>
+  </si>
+  <si>
+    <t>一路向西Ⅴ</t>
+  </si>
+  <si>
+    <t>好奇心Ⅰ</t>
+  </si>
+  <si>
+    <t>好奇心Ⅱ</t>
+  </si>
+  <si>
+    <t>好奇心Ⅲ</t>
+  </si>
+  <si>
+    <t>好奇心Ⅳ</t>
+  </si>
+  <si>
+    <t>好奇心Ⅴ</t>
+  </si>
+  <si>
+    <t>好奇心Ⅵ</t>
+  </si>
+  <si>
+    <t>登堂入室Ⅰ</t>
+  </si>
+  <si>
+    <t>登堂入室Ⅱ</t>
+  </si>
+  <si>
+    <t>登堂入室Ⅲ</t>
+  </si>
+  <si>
+    <t>登堂入室Ⅳ</t>
+  </si>
+  <si>
+    <t>登堂入室Ⅴ</t>
+  </si>
+  <si>
+    <t>初露峥嵘Ⅰ</t>
+  </si>
+  <si>
+    <t>初露峥嵘Ⅱ</t>
+  </si>
+  <si>
+    <t>初露峥嵘Ⅲ</t>
+  </si>
+  <si>
+    <t>初露峥嵘Ⅳ</t>
+  </si>
+  <si>
+    <t>初露峥嵘Ⅴ</t>
+  </si>
+  <si>
+    <t>大背包Ⅰ</t>
+  </si>
+  <si>
+    <t>大背包Ⅱ</t>
+  </si>
+  <si>
+    <t>大背包Ⅲ</t>
+  </si>
+  <si>
+    <t>大背包Ⅳ</t>
+  </si>
+  <si>
+    <t>大背包Ⅴ</t>
+  </si>
+  <si>
+    <t>夺宝奇兵Ⅰ</t>
+  </si>
+  <si>
+    <t>夺宝奇兵Ⅱ</t>
+  </si>
+  <si>
+    <t>夺宝奇兵Ⅲ</t>
+  </si>
+  <si>
+    <t>夺宝奇兵Ⅳ</t>
+  </si>
+  <si>
+    <t>夺宝奇兵Ⅴ</t>
+  </si>
+  <si>
+    <t>夺宝奇兵Ⅵ</t>
+  </si>
+  <si>
+    <t>惩恶扬善Ⅰ</t>
+  </si>
+  <si>
+    <t>惩恶扬善Ⅱ</t>
+  </si>
+  <si>
+    <t>惩恶扬善Ⅲ</t>
+  </si>
+  <si>
+    <t>惩恶扬善Ⅳ</t>
+  </si>
+  <si>
+    <t>惩恶扬善Ⅴ</t>
+  </si>
+  <si>
+    <t>惩恶扬善Ⅵ</t>
+  </si>
+  <si>
+    <t>轮回之战Ⅰ</t>
+  </si>
+  <si>
+    <t>轮回之战Ⅱ</t>
+  </si>
+  <si>
+    <t>轮回之战Ⅲ</t>
+  </si>
+  <si>
+    <t>轮回之战Ⅳ</t>
+  </si>
+  <si>
+    <t>轮回之战Ⅴ</t>
+  </si>
+  <si>
+    <t>轮回之战Ⅵ</t>
+  </si>
+  <si>
+    <t>点金累计获得500金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1个2星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2个2星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3个2星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得4个2星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5个2星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩充到30格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩充到40格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩充到50格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩充到60格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩充到70格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【云栈洞】搜集【破碎钉耙】,【红肚兜】</t>
+  </si>
+  <si>
+    <t>【黄风岭】搜集【飞龙杖】,【灯芯】</t>
+  </si>
+  <si>
+    <t>【白骨洞】搜集【玲珑白骨】,【镇元鼎】</t>
+  </si>
+  <si>
+    <t>【波月洞】搜集【披香阁】,【宝象塔】</t>
+  </si>
+  <si>
+    <t>【莲花洞】搜集【七星穗】,【葫芦芯】</t>
+  </si>
+  <si>
+    <t>【火云洞】搜集【避火珠】,【火象藤】</t>
+  </si>
+  <si>
+    <t>累计击杀妖魔60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1个3星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2个3星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3个3星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得4个3星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5个3星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金累计获得50000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满汉全席Ⅰ</t>
+  </si>
+  <si>
+    <t>满汉全席Ⅱ</t>
+  </si>
+  <si>
+    <t>满汉全席Ⅲ</t>
+  </si>
+  <si>
+    <t>满汉全席Ⅳ</t>
+  </si>
+  <si>
+    <t>满汉全席Ⅴ</t>
+  </si>
+  <si>
+    <t>满汉全席Ⅵ</t>
+  </si>
+  <si>
+    <t>赌博累计获取金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌博累计获取金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌博累计获取金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌博累计获取金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【云栈洞】,击杀八戒残魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【黄风岭】,击杀黄风怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【白骨洞】,击杀白骨精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【波月洞】,击杀黄袍怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【火云洞】,击杀红孩儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【云栈洞】探索度达到80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【火云洞】探索度达到120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-点金累计至指定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-干粮累计消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-赌博累计至指定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-击杀指定地图boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-指定地图探索度达成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【黄风岭】探索度达到85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【白骨洞】探索度达到90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【莲花洞】探索度达到110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【波月洞】探索度达到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-获取指定数2星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-获取指定数3星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6个2星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6个3星角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一路向西Ⅵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登堂入室Ⅵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初露峥嵘Ⅵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-背包扩充至指定大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-获取指定道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-累计击杀怪物数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-累计竞技次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1  地图ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2  怪物ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2  探索度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1  获取数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1   背包大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数指定道具ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1 击杀量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀妖魔150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀妖魔250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀妖魔370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀妖魔520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀妖魔720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjc战斗不计入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计挑战炼魂塔20次</t>
+  </si>
+  <si>
+    <t>累计挑战炼魂塔80次</t>
+  </si>
+  <si>
+    <t>累计挑战炼魂塔180次</t>
+  </si>
+  <si>
+    <t>累计挑战炼魂塔350次</t>
+  </si>
+  <si>
+    <t>累计挑战炼魂塔1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计挑战炼魂塔500次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金累计获得2500金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金累计获得5000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金累计获得15000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金累计获得30000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itmeReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗累计消耗干粮50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗累计消耗干粮100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗累计消耗干粮200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗累计消耗干粮300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗累计消耗干粮500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗累计消耗干粮1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关【莲花洞】,击杀金角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1  jjc挑战次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +749,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +796,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -236,11 +804,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -252,6 +840,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -270,7 +866,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -312,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +943,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,27 +1158,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -593,30 +1189,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="22.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -627,156 +1222,1759 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>500</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2500</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>15000</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>30000</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7">
+        <v>155</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>100</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>2</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>300</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>500</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7">
+        <v>3</v>
+      </c>
+      <c r="K14" s="7">
+        <v>153</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7">
+        <v>3</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
+        <v>2</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7">
+        <v>3</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
+        <v>3</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>30</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>63</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>100</v>
+      </c>
+      <c r="J24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>142</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>102</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>191</v>
+      </c>
+      <c r="J26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="7">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2">
+        <v>244</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>80</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>85</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>90</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="C31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>100</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>170</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="C32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>110</v>
+      </c>
+      <c r="J32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="C33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>120</v>
+      </c>
+      <c r="J33" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="C34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="7">
+        <v>6</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="C35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="7">
+        <v>6</v>
+      </c>
+      <c r="F36" s="7">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="J36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="7">
+        <v>6</v>
+      </c>
+      <c r="F37" s="7">
+        <v>4</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="J37" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="7">
+        <v>6</v>
+      </c>
+      <c r="F38" s="7">
+        <v>5</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="J38" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="7">
+        <v>6</v>
+      </c>
+      <c r="F39" s="7">
+        <v>6</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="J39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="7">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="7">
+        <v>7</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="7">
+        <v>7</v>
+      </c>
+      <c r="F42" s="7">
+        <v>3</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7">
+        <v>2</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="7">
+        <v>7</v>
+      </c>
+      <c r="F43" s="7">
+        <v>4</v>
+      </c>
+      <c r="J43" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="7">
+        <v>7</v>
+      </c>
+      <c r="F44" s="7">
+        <v>5</v>
+      </c>
+      <c r="J44" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="7">
+        <v>7</v>
+      </c>
+      <c r="F45" s="7">
+        <v>6</v>
+      </c>
+      <c r="J45" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F46" s="2">
+        <v>30</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F47" s="2">
+        <v>40</v>
+      </c>
+      <c r="J47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F48" s="2">
+        <v>50</v>
+      </c>
+      <c r="J48" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="2">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F49" s="2">
+        <v>60</v>
+      </c>
+      <c r="J49" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="2">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="F50" s="2">
+        <v>70</v>
+      </c>
+      <c r="J50" s="7">
+        <v>3</v>
+      </c>
+      <c r="K50" s="2">
+        <v>186</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F51" s="2">
+        <v>173</v>
+      </c>
+      <c r="G51" s="2">
+        <v>179</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2">
+        <v>174</v>
+      </c>
+      <c r="G52" s="2">
+        <v>180</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2">
+        <v>175</v>
+      </c>
+      <c r="G53" s="2">
+        <v>181</v>
+      </c>
+      <c r="J53" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2">
+        <v>176</v>
+      </c>
+      <c r="G54" s="2">
+        <v>182</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="2">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2">
+        <v>177</v>
+      </c>
+      <c r="G55" s="2">
+        <v>183</v>
+      </c>
+      <c r="J55" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2">
+        <v>178</v>
+      </c>
+      <c r="G56" s="2">
+        <v>184</v>
+      </c>
+      <c r="J56" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F57" s="2">
+        <v>60</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="2">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2">
+        <v>150</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="2">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2">
+        <v>250</v>
+      </c>
+      <c r="J59" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="2">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2">
+        <v>370</v>
+      </c>
+      <c r="J60" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="2">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2">
+        <v>520</v>
+      </c>
+      <c r="J61" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="2">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2">
+        <v>720</v>
+      </c>
+      <c r="J62" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="2">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="F63" s="2">
         <v>20</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+      <c r="J63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="2">
+        <v>11</v>
+      </c>
+      <c r="F64" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" s="2">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2">
+        <v>180</v>
+      </c>
+      <c r="J65" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" s="2">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2">
+        <v>350</v>
+      </c>
+      <c r="J66" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="2">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2">
+        <v>500</v>
+      </c>
+      <c r="J67" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="2">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J68" s="7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:P2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/成就表.xlsx
+++ b/ExcelConfig/成就表.xlsx
@@ -1192,10 +1192,10 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1718,9 @@
       <c r="E16" s="7">
         <v>3</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>1000</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1744,7 +1746,9 @@
       <c r="E17" s="7">
         <v>3</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>2000</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1770,7 +1774,9 @@
       <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>5000</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1796,7 +1802,9 @@
       <c r="E19" s="7">
         <v>3</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>10000</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1822,7 +1830,9 @@
       <c r="E20" s="7">
         <v>3</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>20000</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1848,7 +1858,9 @@
       <c r="E21" s="7">
         <v>3</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>50000</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
